--- a/data/xslx/学习时长-数学2024.xlsx
+++ b/data/xslx/学习时长-数学2024.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13.50-17:05</t>
+          <t>13:50-17:05</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16:00-17:00， 18:40-21:10</t>
+          <t>16:00-17:00, 18:40-21:10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
